--- a/report/summary_NIKKEI_M15_2020-2023_0.xlsx
+++ b/report/summary_NIKKEI_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,39 +628,39 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>5963</v>
+        <v>7468</v>
       </c>
       <c r="L4" t="n">
-        <v>4278</v>
+        <v>1870</v>
       </c>
       <c r="M4" t="n">
-        <v>-1206</v>
+        <v>-1274</v>
       </c>
       <c r="N4" t="n">
-        <v>4757</v>
+        <v>6194</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4018232819074334</v>
+        <v>0.3877005347593583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,39 +679,39 @@
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>-4226</v>
+        <v>6861</v>
       </c>
       <c r="L5" t="n">
-        <v>4532</v>
+        <v>2351</v>
       </c>
       <c r="M5" t="n">
-        <v>-1106</v>
+        <v>-1148</v>
       </c>
       <c r="N5" t="n">
-        <v>-5332</v>
+        <v>5713</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3746690203000883</v>
+        <v>0.4138664398128456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>-8596</v>
+        <v>5963</v>
       </c>
       <c r="L6" t="n">
-        <v>3824</v>
+        <v>4278</v>
       </c>
       <c r="M6" t="n">
-        <v>-1133</v>
+        <v>-1206</v>
       </c>
       <c r="N6" t="n">
-        <v>-9729</v>
+        <v>4757</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3744769874476988</v>
+        <v>0.4018232819074334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -796,24 +796,24 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-14041</v>
+        <v>-4226</v>
       </c>
       <c r="L7" t="n">
-        <v>9901</v>
+        <v>4532</v>
       </c>
       <c r="M7" t="n">
-        <v>-827</v>
+        <v>-1106</v>
       </c>
       <c r="N7" t="n">
-        <v>-14868</v>
+        <v>-5332</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3752146247853752</v>
+        <v>0.3746690203000883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -832,39 +832,39 @@
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="I8" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-28800</v>
+        <v>-8596</v>
       </c>
       <c r="L8" t="n">
-        <v>3277</v>
+        <v>3824</v>
       </c>
       <c r="M8" t="n">
-        <v>-1215</v>
+        <v>-1133</v>
       </c>
       <c r="N8" t="n">
-        <v>-30015</v>
+        <v>-9729</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3613060726274031</v>
+        <v>0.3744769874476988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I9" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-65517</v>
+        <v>-10151</v>
       </c>
       <c r="L9" t="n">
-        <v>4996</v>
+        <v>4320</v>
       </c>
       <c r="M9" t="n">
-        <v>-1190</v>
+        <v>-1106</v>
       </c>
       <c r="N9" t="n">
-        <v>-66707</v>
+        <v>-11257</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2936349079263411</v>
+        <v>0.3680555555555556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>150</v>
       </c>
       <c r="I10" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="J10" t="n">
         <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>-84676</v>
+        <v>-11626</v>
       </c>
       <c r="L10" t="n">
-        <v>23974</v>
+        <v>6459</v>
       </c>
       <c r="M10" t="n">
-        <v>-1161</v>
+        <v>-1106</v>
       </c>
       <c r="N10" t="n">
-        <v>-85837</v>
+        <v>-12732</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4040210227746726</v>
+        <v>0.416782783712649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -988,10 +988,10 @@
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1000,69 +1000,477 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-109039</v>
+        <v>-14041</v>
       </c>
       <c r="L11" t="n">
-        <v>14995</v>
+        <v>9901</v>
       </c>
       <c r="M11" t="n">
-        <v>-723</v>
+        <v>-827</v>
       </c>
       <c r="N11" t="n">
-        <v>-109762</v>
+        <v>-14868</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3425808602867623</v>
+        <v>0.3752146247853752</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>450</v>
+      </c>
+      <c r="I12" t="n">
+        <v>250</v>
+      </c>
+      <c r="J12" t="n">
+        <v>50</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-23756</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9824</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1206</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-24962</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4517508143322476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>350</v>
+      </c>
+      <c r="I13" t="n">
+        <v>500</v>
+      </c>
+      <c r="J13" t="n">
+        <v>400</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-28800</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3277</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1215</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-30015</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.3613060726274031</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>200</v>
+      </c>
+      <c r="I14" t="n">
+        <v>450</v>
+      </c>
+      <c r="J14" t="n">
+        <v>400</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-65517</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4996</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1190</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-66707</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2936349079263411</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>150</v>
+      </c>
+      <c r="I15" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-72649</v>
+      </c>
+      <c r="L15" t="n">
+        <v>18771</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1137</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-73786</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.4040807628789089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>150</v>
+      </c>
+      <c r="I16" t="n">
+        <v>350</v>
+      </c>
+      <c r="J16" t="n">
+        <v>50</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-84676</v>
+      </c>
+      <c r="L16" t="n">
+        <v>23974</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1161</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-85837</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4040210227746726</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>50</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-109039</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14995</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-723</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-109762</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3425808602867623</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-127038</v>
+      </c>
+      <c r="L18" t="n">
+        <v>21661</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-737</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-127775</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.3489681916809012</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F19" t="n">
+        <v>90</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>350</v>
+      </c>
+      <c r="J19" t="n">
+        <v>250</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-151175</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11576</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-723</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-151898</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.241620594333103</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NIKKEI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F20" t="n">
         <v>70</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G20" t="n">
         <v>0.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H20" t="n">
         <v>100</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I20" t="n">
         <v>150</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J20" t="n">
         <v>100</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K20" t="n">
         <v>-169726</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L20" t="n">
         <v>20682</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M20" t="n">
         <v>-1051</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N20" t="n">
         <v>-170777</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O20" t="n">
         <v>0.3454211391548206</v>
       </c>
     </row>

--- a/report/summary_NIKKEI_M15_2020-2023_0.xlsx
+++ b/report/summary_NIKKEI_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,39 +526,39 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>350</v>
       </c>
       <c r="I2" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J2" t="n">
         <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>16024</v>
+        <v>43949</v>
       </c>
       <c r="L2" t="n">
-        <v>2765</v>
+        <v>6453</v>
       </c>
       <c r="M2" t="n">
-        <v>-1221</v>
+        <v>-1156</v>
       </c>
       <c r="N2" t="n">
-        <v>14803</v>
+        <v>42793</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3927667269439422</v>
+        <v>0.3830776383077638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -577,39 +577,39 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>8514</v>
+        <v>16024</v>
       </c>
       <c r="L3" t="n">
-        <v>9801</v>
+        <v>2765</v>
       </c>
       <c r="M3" t="n">
-        <v>-827</v>
+        <v>-1221</v>
       </c>
       <c r="N3" t="n">
-        <v>7687</v>
+        <v>14803</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3800632588511376</v>
+        <v>0.3927667269439422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,39 +628,39 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H4" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="I4" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>7468</v>
+        <v>15728</v>
       </c>
       <c r="L4" t="n">
-        <v>1870</v>
+        <v>8202</v>
       </c>
       <c r="M4" t="n">
-        <v>-1274</v>
+        <v>-1206</v>
       </c>
       <c r="N4" t="n">
-        <v>6194</v>
+        <v>14522</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3877005347593583</v>
+        <v>0.3857595708363813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,39 +679,39 @@
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>500</v>
       </c>
       <c r="I5" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>6861</v>
+        <v>13623</v>
       </c>
       <c r="L5" t="n">
-        <v>2351</v>
+        <v>2088</v>
       </c>
       <c r="M5" t="n">
-        <v>-1148</v>
+        <v>-1274</v>
       </c>
       <c r="N5" t="n">
-        <v>5713</v>
+        <v>12349</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4138664398128456</v>
+        <v>0.396551724137931</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>500</v>
       </c>
       <c r="I6" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>5963</v>
+        <v>10624</v>
       </c>
       <c r="L6" t="n">
-        <v>4278</v>
+        <v>10761</v>
       </c>
       <c r="M6" t="n">
-        <v>-1206</v>
+        <v>-723</v>
       </c>
       <c r="N6" t="n">
-        <v>4757</v>
+        <v>9901</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4018232819074334</v>
+        <v>0.3812842672614069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         <v>70</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -796,24 +796,24 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-4226</v>
+        <v>8514</v>
       </c>
       <c r="L7" t="n">
-        <v>4532</v>
+        <v>9801</v>
       </c>
       <c r="M7" t="n">
-        <v>-1106</v>
+        <v>-827</v>
       </c>
       <c r="N7" t="n">
-        <v>-5332</v>
+        <v>7687</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3746690203000883</v>
+        <v>0.3800632588511376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -835,36 +835,36 @@
         <v>90</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>350</v>
+      </c>
+      <c r="J8" t="n">
         <v>250</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>-8596</v>
+        <v>7468</v>
       </c>
       <c r="L8" t="n">
-        <v>3824</v>
+        <v>1870</v>
       </c>
       <c r="M8" t="n">
-        <v>-1133</v>
+        <v>-1274</v>
       </c>
       <c r="N8" t="n">
-        <v>-9729</v>
+        <v>6194</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3744769874476988</v>
+        <v>0.3877005347593583</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>-10151</v>
+        <v>6861</v>
       </c>
       <c r="L9" t="n">
-        <v>4320</v>
+        <v>2351</v>
       </c>
       <c r="M9" t="n">
-        <v>-1106</v>
+        <v>-1148</v>
       </c>
       <c r="N9" t="n">
-        <v>-11257</v>
+        <v>5713</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3680555555555556</v>
+        <v>0.4138664398128456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>500</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>-11626</v>
+        <v>5963</v>
       </c>
       <c r="L10" t="n">
-        <v>6459</v>
+        <v>4278</v>
       </c>
       <c r="M10" t="n">
-        <v>-1106</v>
+        <v>-1206</v>
       </c>
       <c r="N10" t="n">
-        <v>-12732</v>
+        <v>4757</v>
       </c>
       <c r="O10" t="n">
-        <v>0.416782783712649</v>
+        <v>0.4018232819074334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -985,39 +985,39 @@
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>-14041</v>
+        <v>5909</v>
       </c>
       <c r="L11" t="n">
-        <v>9901</v>
+        <v>6413</v>
       </c>
       <c r="M11" t="n">
-        <v>-827</v>
+        <v>-1206</v>
       </c>
       <c r="N11" t="n">
-        <v>-14868</v>
+        <v>4703</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3752146247853752</v>
+        <v>0.4469047247777951</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1039,36 +1039,36 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I12" t="n">
+        <v>500</v>
+      </c>
+      <c r="J12" t="n">
         <v>250</v>
       </c>
-      <c r="J12" t="n">
-        <v>50</v>
-      </c>
       <c r="K12" t="n">
-        <v>-23756</v>
+        <v>5255</v>
       </c>
       <c r="L12" t="n">
-        <v>9824</v>
+        <v>2095</v>
       </c>
       <c r="M12" t="n">
-        <v>-1206</v>
+        <v>-1274</v>
       </c>
       <c r="N12" t="n">
-        <v>-24962</v>
+        <v>3981</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4517508143322476</v>
+        <v>0.3775656324582339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1087,39 +1087,39 @@
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I13" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>-28800</v>
+        <v>-11</v>
       </c>
       <c r="L13" t="n">
-        <v>3277</v>
+        <v>4804</v>
       </c>
       <c r="M13" t="n">
-        <v>-1215</v>
+        <v>-1106</v>
       </c>
       <c r="N13" t="n">
-        <v>-30015</v>
+        <v>-1117</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3613060726274031</v>
+        <v>0.4548293089092423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1138,10 +1138,10 @@
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
         <v>200</v>
@@ -1150,27 +1150,27 @@
         <v>450</v>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>-65517</v>
+        <v>-2102</v>
       </c>
       <c r="L14" t="n">
-        <v>4996</v>
+        <v>2374</v>
       </c>
       <c r="M14" t="n">
-        <v>-1190</v>
+        <v>-1148</v>
       </c>
       <c r="N14" t="n">
-        <v>-66707</v>
+        <v>-3250</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2936349079263411</v>
+        <v>0.3635214827295704</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1189,39 +1189,39 @@
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I15" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-72649</v>
+        <v>-4226</v>
       </c>
       <c r="L15" t="n">
-        <v>18771</v>
+        <v>4532</v>
       </c>
       <c r="M15" t="n">
-        <v>-1137</v>
+        <v>-1106</v>
       </c>
       <c r="N15" t="n">
-        <v>-73786</v>
+        <v>-5332</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4040807628789089</v>
+        <v>0.3746690203000883</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1243,36 +1243,36 @@
         <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
+        <v>450</v>
+      </c>
+      <c r="I16" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" t="n">
         <v>150</v>
       </c>
-      <c r="I16" t="n">
-        <v>350</v>
-      </c>
-      <c r="J16" t="n">
-        <v>50</v>
-      </c>
       <c r="K16" t="n">
-        <v>-84676</v>
+        <v>-5812</v>
       </c>
       <c r="L16" t="n">
-        <v>23974</v>
+        <v>3625</v>
       </c>
       <c r="M16" t="n">
-        <v>-1161</v>
+        <v>-1447</v>
       </c>
       <c r="N16" t="n">
-        <v>-85837</v>
+        <v>-7259</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4040210227746726</v>
+        <v>0.4005517241379311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         <v>2023</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1306,24 +1306,24 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-109039</v>
+        <v>-8596</v>
       </c>
       <c r="L17" t="n">
-        <v>14995</v>
+        <v>3824</v>
       </c>
       <c r="M17" t="n">
-        <v>-723</v>
+        <v>-1133</v>
       </c>
       <c r="N17" t="n">
-        <v>-109762</v>
+        <v>-9729</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3425808602867623</v>
+        <v>0.3744769874476988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1342,13 +1342,13 @@
         <v>2023</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1357,24 +1357,24 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-127038</v>
+        <v>-8684</v>
       </c>
       <c r="L18" t="n">
-        <v>21661</v>
+        <v>4074</v>
       </c>
       <c r="M18" t="n">
-        <v>-737</v>
+        <v>-1106</v>
       </c>
       <c r="N18" t="n">
-        <v>-127775</v>
+        <v>-9790</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3489681916809012</v>
+        <v>0.3735886107020128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1393,84 +1393,1104 @@
         <v>2023</v>
       </c>
       <c r="F19" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6000000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I19" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-151175</v>
+        <v>-10151</v>
       </c>
       <c r="L19" t="n">
-        <v>11576</v>
+        <v>4320</v>
       </c>
       <c r="M19" t="n">
-        <v>-723</v>
+        <v>-1106</v>
       </c>
       <c r="N19" t="n">
-        <v>-151898</v>
+        <v>-11257</v>
       </c>
       <c r="O19" t="n">
-        <v>0.241620594333103</v>
+        <v>0.3680555555555556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F20" t="n">
+        <v>60</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>150</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-10586</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9843</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-827</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-11413</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3775271766737783</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>200</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-10703</v>
+      </c>
+      <c r="L21" t="n">
+        <v>14927</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-723</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-11426</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3732163194211831</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>150</v>
+      </c>
+      <c r="I22" t="n">
+        <v>500</v>
+      </c>
+      <c r="J22" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-11626</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6459</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1106</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-12732</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.416782783712649</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F23" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>150</v>
+      </c>
+      <c r="I23" t="n">
+        <v>350</v>
+      </c>
+      <c r="J23" t="n">
+        <v>150</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-13380</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2259</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1133</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-14513</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.3585657370517928</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>150</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-14041</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9901</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-827</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-14868</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3752146247853752</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>350</v>
+      </c>
+      <c r="I25" t="n">
+        <v>150</v>
+      </c>
+      <c r="J25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-14491</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4095</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1206</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-15697</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.441025641025641</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>250</v>
+      </c>
+      <c r="I26" t="n">
+        <v>400</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-21900</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8759</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1206</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-23106</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.3966206187920995</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F27" t="n">
+        <v>60</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>450</v>
+      </c>
+      <c r="I27" t="n">
+        <v>250</v>
+      </c>
+      <c r="J27" t="n">
+        <v>50</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-23756</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9824</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-1206</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-24962</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.4517508143322476</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>350</v>
+      </c>
+      <c r="I28" t="n">
+        <v>500</v>
+      </c>
+      <c r="J28" t="n">
+        <v>400</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-26259</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3820</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-1244</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-27503</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.3589005235602094</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F29" t="n">
+        <v>30</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>350</v>
+      </c>
+      <c r="I29" t="n">
+        <v>500</v>
+      </c>
+      <c r="J29" t="n">
+        <v>400</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-28800</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3277</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1215</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-30015</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.3613060726274031</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F30" t="n">
+        <v>90</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>400</v>
+      </c>
+      <c r="J30" t="n">
+        <v>250</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-47245</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3415</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-1133</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-48378</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.2418740849194729</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>200</v>
+      </c>
+      <c r="I31" t="n">
+        <v>450</v>
+      </c>
+      <c r="J31" t="n">
+        <v>400</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-65517</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4996</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1190</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-66707</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.2936349079263411</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>150</v>
+      </c>
+      <c r="I32" t="n">
+        <v>150</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-67281</v>
+      </c>
+      <c r="L32" t="n">
+        <v>21244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1137</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-68418</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4030314441724722</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F33" t="n">
+        <v>60</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>150</v>
+      </c>
+      <c r="I33" t="n">
+        <v>200</v>
+      </c>
+      <c r="J33" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-72649</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18771</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1137</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-73786</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.4040807628789089</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F34" t="n">
+        <v>90</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" t="n">
+        <v>500</v>
+      </c>
+      <c r="J34" t="n">
+        <v>350</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-74153</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4132</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1106</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-75259</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.2035333978702807</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F35" t="n">
+        <v>80</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>200</v>
+      </c>
+      <c r="I35" t="n">
+        <v>400</v>
+      </c>
+      <c r="J35" t="n">
+        <v>350</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-77212</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6487</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1134</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-78346</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.3115461692616001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F36" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>150</v>
+      </c>
+      <c r="I36" t="n">
+        <v>350</v>
+      </c>
+      <c r="J36" t="n">
+        <v>50</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-84676</v>
+      </c>
+      <c r="L36" t="n">
+        <v>23974</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1161</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-85837</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.4040210227746726</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-109039</v>
+      </c>
+      <c r="L37" t="n">
+        <v>14995</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-723</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-109762</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.3425808602867623</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>50</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-127038</v>
+      </c>
+      <c r="L38" t="n">
+        <v>21661</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-737</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-127775</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.3489681916809012</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F39" t="n">
+        <v>90</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" t="n">
+        <v>350</v>
+      </c>
+      <c r="J39" t="n">
+        <v>250</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-151175</v>
+      </c>
+      <c r="L39" t="n">
+        <v>11576</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-723</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-151898</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.241620594333103</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NIKKEI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F40" t="n">
         <v>70</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G40" t="n">
         <v>0.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H40" t="n">
         <v>100</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I40" t="n">
         <v>150</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J40" t="n">
         <v>100</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K40" t="n">
         <v>-169726</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L40" t="n">
         <v>20682</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M40" t="n">
         <v>-1051</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N40" t="n">
         <v>-170777</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O40" t="n">
         <v>0.3454211391548206</v>
       </c>
     </row>

--- a/report/summary_NIKKEI_M15_2020-2023_0.xlsx
+++ b/report/summary_NIKKEI_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,54 +551,54 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>300</v>
+      </c>
+      <c r="I2" t="n">
         <v>400</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>200</v>
       </c>
-      <c r="J2" t="n">
-        <v>150</v>
-      </c>
       <c r="K2" t="n">
-        <v>22867</v>
+        <v>32262</v>
       </c>
       <c r="L2" t="n">
-        <v>-1671</v>
+        <v>-1997</v>
       </c>
       <c r="M2" t="n">
-        <v>5357</v>
+        <v>6289</v>
       </c>
       <c r="N2" t="n">
-        <v>24538</v>
+        <v>34259</v>
       </c>
       <c r="O2" t="n">
-        <v>-1106</v>
+        <v>-1156</v>
       </c>
       <c r="P2" t="n">
-        <v>1597</v>
+        <v>2083</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.580548814635057</v>
+        <v>5.447447924948323</v>
       </c>
       <c r="R2" t="n">
-        <v>207.6371629321197</v>
+        <v>249.5065522558998</v>
       </c>
       <c r="S2" t="n">
         <v>-66</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3455292141123763</v>
+        <v>0.3148354269359199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -617,54 +617,54 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>12279</v>
+        <v>22867</v>
       </c>
       <c r="L3" t="n">
-        <v>-735</v>
+        <v>-1671</v>
       </c>
       <c r="M3" t="n">
-        <v>2454</v>
+        <v>5357</v>
       </c>
       <c r="N3" t="n">
-        <v>13014</v>
+        <v>24538</v>
       </c>
       <c r="O3" t="n">
-        <v>-1221</v>
+        <v>-1106</v>
       </c>
       <c r="P3" t="n">
-        <v>2199</v>
+        <v>1597</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.30317848410758</v>
+        <v>4.580548814635057</v>
       </c>
       <c r="R3" t="n">
-        <v>312.3160077323988</v>
+        <v>207.6371629321197</v>
       </c>
       <c r="S3" t="n">
-        <v>-98</v>
+        <v>-66</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3573757131214344</v>
+        <v>0.3455292141123763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -686,51 +686,51 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I4" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>-49119</v>
+        <v>13970</v>
       </c>
       <c r="L4" t="n">
-        <v>-28272</v>
+        <v>-412</v>
       </c>
       <c r="M4" t="n">
-        <v>1928</v>
+        <v>2062</v>
       </c>
       <c r="N4" t="n">
-        <v>-20847</v>
+        <v>14382</v>
       </c>
       <c r="O4" t="n">
-        <v>-1250</v>
+        <v>-1196</v>
       </c>
       <c r="P4" t="n">
-        <v>2662</v>
+        <v>1627</v>
       </c>
       <c r="Q4" t="n">
-        <v>-10.81275933609959</v>
+        <v>6.974781765276431</v>
       </c>
       <c r="R4" t="n">
-        <v>423.6045870443333</v>
+        <v>222.0360426005228</v>
       </c>
       <c r="S4" t="n">
-        <v>-149.5</v>
+        <v>-54</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3246887966804979</v>
+        <v>0.3797284190106692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -749,48 +749,642 @@
         <v>2023</v>
       </c>
       <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>250</v>
+      </c>
+      <c r="I5" t="n">
+        <v>500</v>
+      </c>
+      <c r="J5" t="n">
+        <v>250</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12279</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-735</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2454</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13014</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1221</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2199</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.30317848410758</v>
+      </c>
+      <c r="R5" t="n">
+        <v>312.3160077323988</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-98</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3573757131214344</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>450</v>
+      </c>
+      <c r="I6" t="n">
+        <v>500</v>
+      </c>
+      <c r="J6" t="n">
+        <v>150</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9493</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-5591</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6753</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15084</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1106</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1743</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.233673922701022</v>
+      </c>
+      <c r="R6" t="n">
+        <v>202.3234348469046</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.3314082629942248</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>250</v>
+      </c>
+      <c r="I7" t="n">
+        <v>450</v>
+      </c>
+      <c r="J7" t="n">
+        <v>250</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1749</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-5710</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5859</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7459</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-848</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2203</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.273084144051886</v>
+      </c>
+      <c r="R7" t="n">
+        <v>278.3416085384227</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-63</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2968083290663936</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>250</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-18859</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-10205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4660</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-8654</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1106</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1094</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1.857081545064378</v>
+      </c>
+      <c r="R8" t="n">
+        <v>155.1125445047152</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-32</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.3639484978540772</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>450</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-19372</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-10603</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3648</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-8769</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1133</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1281</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-2.403782894736842</v>
+      </c>
+      <c r="R9" t="n">
+        <v>174.1479321020682</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-40</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3728070175438596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>250</v>
+      </c>
+      <c r="I10" t="n">
+        <v>450</v>
+      </c>
+      <c r="J10" t="n">
+        <v>250</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-20237</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-15778</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4808</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-4459</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1190</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2208</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.9274126455906821</v>
+      </c>
+      <c r="R10" t="n">
+        <v>293.8461131277627</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-80</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.3134359400998336</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>200</v>
+      </c>
+      <c r="I11" t="n">
+        <v>450</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-22871</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-12100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4661</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-10771</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1106</v>
+      </c>
+      <c r="P11" t="n">
+        <v>838</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-2.310877494099978</v>
+      </c>
+      <c r="R11" t="n">
+        <v>118.5219987134929</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.3898305084745763</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>200</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-31167</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-17280</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8357</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-13887</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-1106</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1075</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-1.661720713174584</v>
+      </c>
+      <c r="R12" t="n">
+        <v>115.2803403041928</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-23</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3708268517410554</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>300</v>
+      </c>
+      <c r="I13" t="n">
+        <v>450</v>
+      </c>
+      <c r="J13" t="n">
+        <v>400</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-49119</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-28272</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1928</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-20847</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-1250</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2662</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-10.81275933609959</v>
+      </c>
+      <c r="R13" t="n">
+        <v>423.6045870443333</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-149.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.3246887966804979</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F14" t="n">
         <v>70</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G14" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>100</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>350</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J14" t="n">
         <v>300</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K14" t="n">
         <v>-174713</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>-88353</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M14" t="n">
         <v>7240</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N14" t="n">
         <v>-86360</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O14" t="n">
         <v>-1051</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P14" t="n">
         <v>2560</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q14" t="n">
         <v>-11.92817679558011</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R14" t="n">
         <v>254.3283915590816</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S14" t="n">
         <v>-102</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T14" t="n">
         <v>0.1930939226519337</v>
       </c>
     </row>
